--- a/Schema function.xlsx
+++ b/Schema function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GENAI_SELF_LEARNING_PYTHON_PROJECTS\Arize Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{82FE5D37-4670-4601-809E-7B7C2BAD88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{F007568C-F936-4545-BBB5-3B8C1CD89444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EA39F2DA-65FB-4E06-880B-86C8F619835F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1473">
   <si>
     <t>Arg name</t>
   </si>
@@ -13447,6 +13447,9 @@
     </r>
   </si>
   <si>
+    <t>Ask ChatGPT</t>
+  </si>
+  <si>
     <t>if i dont mention the model type, then how would arize know which broader ml algo like classification, regression or time series i am running?</t>
   </si>
   <si>
@@ -14089,6 +14092,2268 @@
   </si>
   <si>
     <t>what does the performance insight indicates and worst performing slices mean?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Arize, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance Insights → Worst Performing Slices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> panel is your automatic, “root-cause” spotlight: it surface-scans every feature (and reasonable value ranges or bins) to find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cohorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where your model is under-performing the most. Here’s how to read it:</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Each line is a “slice” or cohort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>mean concave po... = 0.08 to 0.2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means “all inference records where the feature </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>mean concave points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> falls between 0.08 and 0.2012.”</t>
+    </r>
+  </si>
+  <si>
+    <t>A slice can be a single continuous-feature bin, a categorical value, or (in more advanced use) a multi-feature combination.</t>
+  </si>
+  <si>
+    <t>2. The red ↓ X.Y% shows the performance gap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That percentage is how much that slice’s key metric (here, accuracy) is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>below</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your overall (or baseline) accuracy.</t>
+    </r>
+  </si>
+  <si>
+    <t>e.g. “↓ 8.66%” means that within that slice your accuracy is 8.66 percentage points worse than your model’s average production accuracy.</t>
+  </si>
+  <si>
+    <t>3. “Brings down model performance”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These slices aren’t just poorly performing in isolation—they’re dragging down your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> metric because they occur often enough or are extreme enough to matter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why it matters</t>
+  </si>
+  <si>
+    <r>
+      <t>Quick triage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Instead of hand-filtering dozens of features, you instantly see which feature ranges are costing you most.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data quality &amp; bias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: You might discover that images of a certain brightness range or loan applications from a particular state systematically underperform.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Targeted fixes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Once you know “mean radius between 18–28.1 is –6.18%,” you can dig into data quality for those cases or retrain the model with more examples in that region.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In short, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worst Performing Slices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is Arize’s built-in cohort analysis. It bins your features, computes performance per bin, measures the drop from your global or baseline metric, and ranks the top offenders—so you know exactly where to focus your debugging and remediation.</t>
+    </r>
+  </si>
+  <si>
+    <t>give good example of prediction drift. and explain why the drift is happening</t>
+  </si>
+  <si>
+    <t>In this example, you can see:</t>
+  </si>
+  <si>
+    <r>
+      <t>Baseline (yellow)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was heavily skewed toward </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lower probabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (most predictions &lt;0.3).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Production (orange)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in contrast, has shifted dramatically to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher probabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (most predictions &gt;0.6).</t>
+    </r>
+  </si>
+  <si>
+    <t>The resulting PSI is very large, indicating a strong drift in your prediction distribution.</t>
+  </si>
+  <si>
+    <t>Why might this happen in a real system?</t>
+  </si>
+  <si>
+    <t>1. Customer mix changed</t>
+  </si>
+  <si>
+    <t>You may have started serving a new segment whose risk profile is systematically different—e.g., a marketing campaign attracted higher‐risk users, so your churn or fraud model now outputs higher probabilities.</t>
+  </si>
+  <si>
+    <t>2. Data pipeline or feature change</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An upstream feature (like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) got normalized differently or replaced with stale values, causing the model to “think” inputs are more extreme, hence shifting its outputs.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Concept drift</t>
+  </si>
+  <si>
+    <t>The real-world phenomenon you’re modeling has changed—perhaps a sudden economic event or seasonality shift makes outcomes more likely, and your model’s predictions reflect that new reality.</t>
+  </si>
+  <si>
+    <t>How Arize surfaces this</t>
+  </si>
+  <si>
+    <t>Prediction Drift Over Time</t>
+  </si>
+  <si>
+    <t>A time‐series of PSI (or KS, JS) flags when drift crosses thresholds (e.g., PSI &gt;0.1 is often “moderate” drift).</t>
+  </si>
+  <si>
+    <t>Drift Insights</t>
+  </si>
+  <si>
+    <t>Automatically ranks which features or scores have the largest PSI/JS changes so you can immediately see that “predicted score” itself drifted most.</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>You can set watches so that if PSI exceeds, say, 0.2 for your prediction scores, your team gets paged and can investigate before model performance degrades.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That’s how Arize detects that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the very shape of your prediction distribution is changing over time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—and why: because either the inputs, the underlying event rates, or the customer mix have shifted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synthetic but realistic illustration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of what an Arize </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prediction-Drift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dashboard will show when drift really </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> happening, followed by a quick guide on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>why</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> drift occurs and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how to read it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the UI.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Drift Over Time – PSI line chart</t>
+  </si>
+  <si>
+    <t>What you see in Arize</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The teal (or orange, depending on your theme) dots track the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Population Stability Index (PSI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each day against your </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (typically the training set or the first two weeks of healthy production traffic).</t>
+    </r>
+  </si>
+  <si>
+    <t>How to interpret</t>
+  </si>
+  <si>
+    <t>Values &lt; 0.1 ➜ negligible drift</t>
+  </si>
+  <si>
+    <t>0.1 – 0.2 ➜ moderate drift (yellow dotted line)</t>
+  </si>
+  <si>
+    <t>&gt; 0.2 ➜ severe drift (red line) — your model is now operating on a meaningfully different distribution.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the example, PSI crosses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on July 3 → Arize’s drift monitor would fire an alert.</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Distribution view – “lens” drill-down</t>
+  </si>
+  <si>
+    <t>What you see after clicking a spike or selecting a date range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arize overlays </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selected Production window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Baseline scores cluster near 0 – 0.4 (model thought most users were low-risk).</t>
+  </si>
+  <si>
+    <t>Latest production shifted to 0.6 – 0.9 (model now predicts many more high-risk cases).</t>
+  </si>
+  <si>
+    <t>👉 That asymmetric shift is what drove PSI up.</t>
+  </si>
+  <si>
+    <t>Why drift like this happens</t>
+  </si>
+  <si>
+    <t>Root cause category</t>
+  </si>
+  <si>
+    <t>Typical real-world story</t>
+  </si>
+  <si>
+    <t>Population shift</t>
+  </si>
+  <si>
+    <t>Marketing campaign brought in new user segment; fraud model now sees riskier profiles, thus predicts higher probabilities.</t>
+  </si>
+  <si>
+    <t>Up-stream data pipeline change</t>
+  </si>
+  <si>
+    <t>Feature was re-normalized, or a hotfix pushed column names in different order, skewing inputs.</t>
+  </si>
+  <si>
+    <t>Seasonality / concept drift</t>
+  </si>
+  <si>
+    <t>Economic shock or holiday season fundamentally changed label priors (e.g., more fraud during Black Friday).</t>
+  </si>
+  <si>
+    <t>Label leakage fixed</t>
+  </si>
+  <si>
+    <t>In training you accidentally leaked future info; in prod the feature is null, so prediction distribution collapses.</t>
+  </si>
+  <si>
+    <t>Quickly diagnosing it inside Arize</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Metric dropdown → PSI / JS / KS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – choose the drift stat; PSI is default for numeric.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Compare To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – pick </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to anchor the comparison.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Zoom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – drag the orange box (as in your screenshot) to zoom into the suspicious window.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Drift Insights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> panel – lists </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exceed thresholds; click to pivot and confirm that, say, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>prediction_score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> both drifted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Slice Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – filter just the new cohort (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>country = CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to verify if it’s the driver.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Alert history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – check whether the monitor fired and who got paged.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By following those steps you go from a red drift alert ➜ to seeing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shape of the shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ➜ to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>root-cause slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a few clicks—all inside the Arize interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>explain the PSI plot shown above</t>
+  </si>
+  <si>
+    <t>Prediction Drift Over Time  (PSI vs. Model Baseline)</t>
+  </si>
+  <si>
+    <t>│   ▲</t>
+  </si>
+  <si>
+    <t>│   │                                   ●   0.25  ← Severe drift</t>
+  </si>
+  <si>
+    <t>│ 0.25 ────────────── red dashed line ──┘</t>
+  </si>
+  <si>
+    <t>│   │                           ●</t>
+  </si>
+  <si>
+    <t>│ 0.20 ─────────────────────────────────────────   (near-severe)</t>
+  </si>
+  <si>
+    <t>│   │                     ●</t>
+  </si>
+  <si>
+    <t>│ 0.15 ─────────────────────────────────────────   (moderate → severe)</t>
+  </si>
+  <si>
+    <t>│   │               ●</t>
+  </si>
+  <si>
+    <t>│ 0.10 ───── yellow dashed line ───────┘</t>
+  </si>
+  <si>
+    <t>│   │         ●</t>
+  </si>
+  <si>
+    <t>│ 0.05 ─────────────────────────────────────────   (low drift)</t>
+  </si>
+  <si>
+    <t>│   │    ●</t>
+  </si>
+  <si>
+    <t>│ 0.02 ─────────────────────────────────────────</t>
+  </si>
+  <si>
+    <t>│   │</t>
+  </si>
+  <si>
+    <t>└──┴──────────────────────────────────────────────▶  time →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Jun 27  Jun 28  Jun 29  Jun 30  Jul 1  Jul 2  Jul 3</t>
+  </si>
+  <si>
+    <t>1. What PSI measures</t>
+  </si>
+  <si>
+    <t>For each feature (or for the model’s prediction score itself):</t>
+  </si>
+  <si>
+    <t>PSI  =  ∑b=1B(Ab−Eb) ln⁡ ⁣(AbEb)\text{PSI} \;=\; \sum_{b=1}^{B} \bigl(A_b - E_b\bigr)\, \ln\!\left(\frac{A_b}{E_b}\right)PSI=b=1∑B​(Ab​−Eb​)ln(Eb​Ab​​)</t>
+  </si>
+  <si>
+    <r>
+      <t>E_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – fraction of records that fall into bin </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (training or an earlier “healthy” window).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – same fraction in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current production window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The sum over all bins tells you how different today’s distribution is from the baseline.</t>
+  </si>
+  <si>
+    <t>2. How to read the plot</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Orange dots</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily PSI values for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prediction score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> compared with the model baseline.</t>
+    </r>
+  </si>
+  <si>
+    <t>Yellow dashed line (0.10)</t>
+  </si>
+  <si>
+    <t>“Moderate-drift” threshold. Values between 0.10 - 0.20 warrant attention.</t>
+  </si>
+  <si>
+    <t>Red dashed line (0.20)</t>
+  </si>
+  <si>
+    <t>“Severe drift” threshold. Values above 0.20 often precede performance degradation.</t>
+  </si>
+  <si>
+    <t>In the example:</t>
+  </si>
+  <si>
+    <r>
+      <t>Jun 27 - Jun 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – PSI climbs slowly from 0.02 → 0.07 (minor drift).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jul 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – crosses 0.10 ⇒ flagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moderate drift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jul 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – reaches 0.25 ⇒ crosses 0.20 ⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>severe drift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alert fires.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Why drift is occurring (scenario)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The companion distribution plot shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prediction-score histogram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: most probabilities lie between 0.05 – 0.35.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Latest production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bulk shifted to 0.6 – 0.9.</t>
+    </r>
+  </si>
+  <si>
+    <t>Possible real-world causes:</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Example explanation</t>
+  </si>
+  <si>
+    <t>Population change</t>
+  </si>
+  <si>
+    <t>A new marketing campaign attracted users whose profiles look riskier ⇒ model outputs higher scores.</t>
+  </si>
+  <si>
+    <t>Up-stream data bug</t>
+  </si>
+  <si>
+    <t>A feature was re-scaled 100× larger, inflating predicted probabilities.</t>
+  </si>
+  <si>
+    <t>Concept drift</t>
+  </si>
+  <si>
+    <t>External event (e.g., economic shock) genuinely increased the target rate the model predicts.</t>
+  </si>
+  <si>
+    <t>4. How Arize helps you act</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Alert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – a PSI monitor (&gt; 0.2) triggers Slack / PagerDuty.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Drill-down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – clicking the date opens the overlay histogram so you </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the shift.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Drift Insights panel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – ranks which features or scores changed most; if “prediction_score” tops the list, focus there.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Slice Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – further isolate cohorts (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>country = CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>device = Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to pinpoint the segment driving drift.</t>
+    </r>
+  </si>
+  <si>
+    <t>Once root cause is known you can:</t>
+  </si>
+  <si>
+    <t>Retrain with fresh data,</t>
+  </si>
+  <si>
+    <t>Roll back to a stabler model version, or</t>
+  </si>
+  <si>
+    <t>Fix the up-stream feature pipeline.</t>
+  </si>
+  <si>
+    <r>
+      <t>Take-away:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a rising PSI line—especially when it crosses 0.1 or 0.2—visually tells you your model’s prediction distribution no longer matches the data it was trained or calibrated on, signalling the need for investigation and potential remediation.</t>
+    </r>
+  </si>
+  <si>
+    <t>explain the prediction score distribution plot , what does base line mean here and what does production mean here</t>
+  </si>
+  <si>
+    <t>How to read the Prediction-Score Distribution overlay in Arize</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ▲ Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 │          ┌─ Production (selected window)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 │         /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 │        /</t>
+  </si>
+  <si>
+    <t>Baseline (reference) ────┘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 └───────────────────────────────▶ Predicted probability (0–1)</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>What slice of data it represents</t>
+  </si>
+  <si>
+    <t>Typical purpose</t>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(yellow in the example)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference distribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you choose in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compared To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown – most teams pick one of: 1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set, 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set, or 3) an earlier “healthy” span of production (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“first 2 weeks after launch”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Acts as the yard-stick: “How did the model behave when we knew it was good?”</t>
+  </si>
+  <si>
+    <r>
+      <t>Production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(orange/teal in the example)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All prediction scores that occurred in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time window you’ve brushed/selected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the Drift page (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>last 24 h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jun 22 – Jun 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows how the model is behaving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What the plot is telling you</t>
+  </si>
+  <si>
+    <t>Shape &amp; shift</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the earlier example, the baseline peaks around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 – 0.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (model mostly predicted low risk).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The production curve peaks near </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6 – 0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (model is now issuing many high-risk scores).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That visible right-shift explains </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>why</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PSI rose above 0.20.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Area under each curve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is normalised to 1, so you’re comparing relative densities, not raw counts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interpretation questions to ask</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Is the shift expected?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Maybe fraud really went up after a data-breach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Could it be a pipeline bug?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → A mis-scaled input can inflate every score.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Does performance follow drift?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Check Accuracy / F1 over the same window.</t>
+    </r>
+  </si>
+  <si>
+    <t>Choosing (or changing) your baseline in Arize</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>How to set it</t>
+  </si>
+  <si>
+    <t>When it makes sense</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Compared To ▸ Training</t>
+  </si>
+  <si>
+    <t>You want to detect any departure from the data the model was fit on.</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Compared To ▸ Validation</t>
+  </si>
+  <si>
+    <t>You care about matching hold-out performance.</t>
+  </si>
+  <si>
+    <r>
+      <t>Model Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (default)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compared To ▸ Model Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – usually the first N days of prod you marked as healthy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good for teams that retrain often: you compare each new window to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> real-world distribution the model first saw in production.</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom date range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use the calendar picker → </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set as baseline</t>
+    </r>
+  </si>
+  <si>
+    <t>Handy for “pre-incident” vs. “post-incident” analyses.</t>
+  </si>
+  <si>
+    <t>Quick visual checklist</t>
+  </si>
+  <si>
+    <t>Visual cue</t>
+  </si>
+  <si>
+    <t>Two curves almost overlap</t>
+  </si>
+  <si>
+    <t>No meaningful drift – PSI &lt; 0.1.</t>
+  </si>
+  <si>
+    <t>Production curve slides to the right (larger scores)</t>
+  </si>
+  <si>
+    <t>Model starting to assign higher probabilities – maybe target prevalence went up or thresholding bug.</t>
+  </si>
+  <si>
+    <t>Production curve slides left</t>
+  </si>
+  <si>
+    <t>Model more conservative – maybe upstream feature zero-filled.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Production becomes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bimodal</t>
+    </r>
+  </si>
+  <si>
+    <t>Model is seeing a mixed population (two cohorts).</t>
+  </si>
+  <si>
+    <t>When the shift is large enough that PSI or JS &gt; configured thresholds, Arize will:</t>
+  </si>
+  <si>
+    <t>Highlight the drift bar red/orange.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surface the feature in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drift Insights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trigger any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you set up.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That closes the loop from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seeing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the score-distribution plot ➜ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>understanding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> why drift measures spiked ➜ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taking action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (retrain, roll back, or fix data).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14271,7 +16536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14344,6 +16609,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -14614,6 +16880,50 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>183339</xdr:colOff>
+      <xdr:row>1306</xdr:row>
+      <xdr:rowOff>175640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92DD85E-6F09-96E0-9A1F-DEA7A3AC0B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="315300360"/>
+          <a:ext cx="5296359" cy="4381880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16296,10 +18606,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE2C7DD-CF2E-4399-AF67-1892C2B1E3BD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G1212"/>
+  <dimension ref="A1:G1534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1196" workbookViewId="0">
-      <selection activeCell="B1213" sqref="B1213"/>
+    <sheetView tabSelected="1" topLeftCell="A1442" workbookViewId="0">
+      <selection activeCell="E1465" sqref="E1465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16770,7 +19080,7 @@
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="27" t="s">
         <v>375</v>
       </c>
     </row>
@@ -16965,7 +19275,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="72">
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="28" t="s">
         <v>415</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -16982,7 +19292,7 @@
       </c>
     </row>
     <row r="129" spans="2:7" ht="43.2">
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="28" t="s">
         <v>420</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -16999,7 +19309,7 @@
       </c>
     </row>
     <row r="130" spans="2:7" ht="43.2">
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="28" t="s">
         <v>424</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -17016,7 +19326,7 @@
       </c>
     </row>
     <row r="131" spans="2:7" ht="43.2">
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="28" t="s">
         <v>314</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -17033,7 +19343,7 @@
       </c>
     </row>
     <row r="132" spans="2:7" ht="28.8">
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="28" t="s">
         <v>320</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -17050,7 +19360,7 @@
       </c>
     </row>
     <row r="133" spans="2:7" ht="72">
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="28" t="s">
         <v>317</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -17062,12 +19372,12 @@
       <c r="F133" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="29" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="43.2">
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="28" t="s">
         <v>436</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -17084,7 +19394,7 @@
       </c>
     </row>
     <row r="135" spans="2:7" ht="28.8">
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="28" t="s">
         <v>441</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -17101,7 +19411,7 @@
       </c>
     </row>
     <row r="136" spans="2:7" ht="43.2">
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="28" t="s">
         <v>445</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -17118,7 +19428,7 @@
       </c>
     </row>
     <row r="137" spans="2:7" ht="43.2">
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="28" t="s">
         <v>449</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -17135,7 +19445,7 @@
       </c>
     </row>
     <row r="138" spans="2:7" ht="43.2">
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="28" t="s">
         <v>453</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -17152,7 +19462,7 @@
       </c>
     </row>
     <row r="139" spans="2:7" ht="43.2">
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="28" t="s">
         <v>456</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -17169,7 +19479,7 @@
       </c>
     </row>
     <row r="140" spans="2:7" ht="28.8">
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="28" t="s">
         <v>459</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -17186,7 +19496,7 @@
       </c>
     </row>
     <row r="141" spans="2:7" ht="28.8">
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="28" t="s">
         <v>463</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -17383,7 +19693,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="43.2">
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="28" t="s">
         <v>499</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -17604,7 +19914,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="18">
-      <c r="B231" s="29" t="s">
+      <c r="B231" s="30" t="s">
         <v>537</v>
       </c>
     </row>
@@ -17835,7 +20145,7 @@
       <c r="B275" s="19"/>
     </row>
     <row r="276" spans="1:2">
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="31" t="s">
         <v>582</v>
       </c>
     </row>
@@ -18481,7 +20791,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" ht="18">
-      <c r="B431" s="29" t="s">
+      <c r="B431" s="30" t="s">
         <v>686</v>
       </c>
     </row>
@@ -18518,7 +20828,7 @@
       </c>
     </row>
     <row r="437" spans="2:3" ht="72">
-      <c r="B437" s="31" t="s">
+      <c r="B437" s="32" t="s">
         <v>694</v>
       </c>
       <c r="C437" s="3" t="s">
@@ -18526,7 +20836,7 @@
       </c>
     </row>
     <row r="438" spans="2:3" ht="57.6">
-      <c r="B438" s="31"/>
+      <c r="B438" s="32"/>
       <c r="C438" s="2" t="s">
         <v>696</v>
       </c>
@@ -18601,7 +20911,7 @@
       </c>
     </row>
     <row r="454" spans="2:2">
-      <c r="B454" s="26" t="s">
+      <c r="B454" s="27" t="s">
         <v>708</v>
       </c>
     </row>
@@ -18793,29 +21103,29 @@
       </c>
     </row>
     <row r="498" spans="2:4" ht="14.4" customHeight="1">
-      <c r="B498" s="31" t="s">
+      <c r="B498" s="32" t="s">
         <v>745</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D498" s="32" t="s">
+      <c r="D498" s="33" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="499" spans="2:4">
-      <c r="B499" s="31"/>
+      <c r="B499" s="32"/>
       <c r="C499" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D499" s="32"/>
+      <c r="D499" s="33"/>
     </row>
     <row r="500" spans="2:4" ht="28.8">
-      <c r="B500" s="31"/>
+      <c r="B500" s="32"/>
       <c r="C500" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D500" s="32"/>
+      <c r="D500" s="33"/>
     </row>
     <row r="501" spans="2:4" ht="57.6">
       <c r="B501" s="17" t="s">
@@ -18971,7 +21281,7 @@
       </c>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="30" t="s">
+      <c r="B541" s="31" t="s">
         <v>775</v>
       </c>
     </row>
@@ -18992,7 +21302,7 @@
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="B546" s="30" t="s">
+      <c r="B546" s="31" t="s">
         <v>778</v>
       </c>
     </row>
@@ -19699,26 +22009,26 @@
       <c r="B720" s="19"/>
     </row>
     <row r="721" spans="2:4">
-      <c r="B721" s="33"/>
+      <c r="B721" s="34"/>
     </row>
     <row r="722" spans="2:4">
-      <c r="B722" s="34" t="s">
+      <c r="B722" s="35" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="723" spans="2:4">
-      <c r="B723" s="33"/>
+      <c r="B723" s="34"/>
     </row>
     <row r="724" spans="2:4">
-      <c r="B724" s="34" t="s">
+      <c r="B724" s="35" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="725" spans="2:4">
-      <c r="B725" s="33"/>
+      <c r="B725" s="34"/>
     </row>
     <row r="726" spans="2:4">
-      <c r="B726" s="34" t="s">
+      <c r="B726" s="35" t="s">
         <v>883</v>
       </c>
     </row>
@@ -19804,7 +22114,7 @@
       <c r="B744" s="19"/>
     </row>
     <row r="745" spans="2:3">
-      <c r="B745" s="30" t="s">
+      <c r="B745" s="31" t="s">
         <v>901</v>
       </c>
     </row>
@@ -19812,7 +22122,7 @@
       <c r="B746" s="19"/>
     </row>
     <row r="747" spans="2:3">
-      <c r="B747" s="30" t="s">
+      <c r="B747" s="31" t="s">
         <v>902</v>
       </c>
     </row>
@@ -19904,40 +22214,40 @@
       </c>
     </row>
     <row r="771" spans="2:4">
-      <c r="B771" s="31" t="s">
+      <c r="B771" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="C771" s="35" t="s">
+      <c r="C771" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="D771" s="28" t="s">
+      <c r="D771" s="29" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="772" spans="2:4">
-      <c r="B772" s="31"/>
-      <c r="C772" s="35"/>
+      <c r="B772" s="32"/>
+      <c r="C772" s="36"/>
       <c r="D772" s="2" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="773" spans="2:4">
-      <c r="B773" s="31"/>
-      <c r="C773" s="35"/>
-      <c r="D773" s="28" t="s">
+      <c r="B773" s="32"/>
+      <c r="C773" s="36"/>
+      <c r="D773" s="29" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="774" spans="2:4" ht="28.8">
-      <c r="B774" s="31"/>
-      <c r="C774" s="35"/>
-      <c r="D774" s="28" t="s">
+      <c r="B774" s="32"/>
+      <c r="C774" s="36"/>
+      <c r="D774" s="29" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="775" spans="2:4" ht="43.2">
-      <c r="B775" s="31"/>
-      <c r="C775" s="35"/>
+      <c r="B775" s="32"/>
+      <c r="C775" s="36"/>
       <c r="D775" s="17" t="s">
         <v>923</v>
       </c>
@@ -19960,7 +22270,7 @@
       <c r="C777" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D777" s="28" t="s">
+      <c r="D777" s="29" t="s">
         <v>928</v>
       </c>
     </row>
@@ -19976,20 +22286,20 @@
       </c>
     </row>
     <row r="779" spans="2:4">
-      <c r="B779" s="31" t="s">
+      <c r="B779" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C779" s="35" t="s">
+      <c r="C779" s="36" t="s">
         <v>931</v>
       </c>
-      <c r="D779" s="28" t="s">
+      <c r="D779" s="29" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="780" spans="2:4" ht="72">
-      <c r="B780" s="31"/>
-      <c r="C780" s="35"/>
-      <c r="D780" s="28" t="s">
+      <c r="B780" s="32"/>
+      <c r="C780" s="36"/>
+      <c r="D780" s="29" t="s">
         <v>933</v>
       </c>
     </row>
@@ -20000,7 +22310,7 @@
       <c r="C781" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D781" s="28" t="s">
+      <c r="D781" s="29" t="s">
         <v>936</v>
       </c>
     </row>
@@ -20065,18 +22375,18 @@
       <c r="B792" s="19"/>
     </row>
     <row r="793" spans="2:2">
-      <c r="B793" s="33"/>
+      <c r="B793" s="34"/>
     </row>
     <row r="794" spans="2:2">
-      <c r="B794" s="33" t="s">
+      <c r="B794" s="34" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="795" spans="2:2">
-      <c r="B795" s="33"/>
+      <c r="B795" s="34"/>
     </row>
     <row r="796" spans="2:2">
-      <c r="B796" s="33" t="s">
+      <c r="B796" s="34" t="s">
         <v>949</v>
       </c>
     </row>
@@ -20092,7 +22402,7 @@
       <c r="B799" s="19"/>
     </row>
     <row r="800" spans="2:2">
-      <c r="B800" s="30" t="s">
+      <c r="B800" s="31" t="s">
         <v>951</v>
       </c>
     </row>
@@ -20331,7 +22641,7 @@
       <c r="B833" s="19"/>
     </row>
     <row r="834" spans="1:4">
-      <c r="B834" s="30" t="s">
+      <c r="B834" s="31" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -20375,25 +22685,25 @@
       </c>
     </row>
     <row r="847" spans="1:4" ht="28.8">
-      <c r="B847" s="31" t="s">
+      <c r="B847" s="32" t="s">
         <v>1020</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="D847" s="35" t="s">
+      <c r="D847" s="36" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="848" spans="1:4" ht="43.2">
-      <c r="B848" s="31"/>
+      <c r="B848" s="32"/>
       <c r="C848" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="D848" s="35"/>
+      <c r="D848" s="36"/>
     </row>
     <row r="849" spans="2:3" ht="28.8">
-      <c r="B849" s="31" t="s">
+      <c r="B849" s="32" t="s">
         <v>1024</v>
       </c>
       <c r="C849" s="2" t="s">
@@ -20401,7 +22711,7 @@
       </c>
     </row>
     <row r="850" spans="2:3" ht="43.2">
-      <c r="B850" s="31"/>
+      <c r="B850" s="32"/>
       <c r="C850" s="2" t="s">
         <v>1026</v>
       </c>
@@ -20555,7 +22865,7 @@
       </c>
     </row>
     <row r="887" spans="2:2">
-      <c r="B887" s="36" t="s">
+      <c r="B887" s="37" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -20588,7 +22898,7 @@
       </c>
     </row>
     <row r="896" spans="2:2">
-      <c r="B896" s="36" t="s">
+      <c r="B896" s="37" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -20925,7 +23235,7 @@
       </c>
     </row>
     <row r="980" spans="2:3">
-      <c r="B980" s="36" t="s">
+      <c r="B980" s="37" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -21175,7 +23485,7 @@
       <c r="B1043" s="17" t="s">
         <v>1158</v>
       </c>
-      <c r="C1043" s="28" t="s">
+      <c r="C1043" s="29" t="s">
         <v>1159</v>
       </c>
       <c r="D1043" s="2" t="s">
@@ -21227,7 +23537,7 @@
       </c>
     </row>
     <row r="1048" spans="2:4" ht="43.2">
-      <c r="B1048" s="31" t="s">
+      <c r="B1048" s="32" t="s">
         <v>1173</v>
       </c>
       <c r="C1048" s="2" t="s">
@@ -21238,7 +23548,7 @@
       </c>
     </row>
     <row r="1049" spans="2:4" ht="43.2">
-      <c r="B1049" s="31"/>
+      <c r="B1049" s="32"/>
       <c r="C1049" s="2" t="s">
         <v>1175</v>
       </c>
@@ -21247,7 +23557,7 @@
       </c>
     </row>
     <row r="1050" spans="2:4" ht="43.2">
-      <c r="B1050" s="31"/>
+      <c r="B1050" s="32"/>
       <c r="C1050" s="2" t="s">
         <v>1176</v>
       </c>
@@ -21400,70 +23710,70 @@
       </c>
     </row>
     <row r="1080" spans="1:3" ht="72" customHeight="1">
-      <c r="B1080" s="31" t="s">
+      <c r="B1080" s="32" t="s">
         <v>1213</v>
       </c>
-      <c r="C1080" s="35" t="s">
+      <c r="C1080" s="36" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
-      <c r="B1081" s="31"/>
-      <c r="C1081" s="35"/>
+      <c r="B1081" s="32"/>
+      <c r="C1081" s="36"/>
     </row>
     <row r="1082" spans="1:3" ht="86.4" customHeight="1">
-      <c r="B1082" s="31" t="s">
+      <c r="B1082" s="32" t="s">
         <v>1215</v>
       </c>
-      <c r="C1082" s="35" t="s">
+      <c r="C1082" s="36" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
-      <c r="B1083" s="31"/>
-      <c r="C1083" s="35"/>
+      <c r="B1083" s="32"/>
+      <c r="C1083" s="36"/>
     </row>
     <row r="1084" spans="1:3" ht="72" customHeight="1">
-      <c r="B1084" s="31" t="s">
+      <c r="B1084" s="32" t="s">
         <v>1217</v>
       </c>
-      <c r="C1084" s="35" t="s">
+      <c r="C1084" s="36" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
-      <c r="B1085" s="31"/>
-      <c r="C1085" s="35"/>
+      <c r="B1085" s="32"/>
+      <c r="C1085" s="36"/>
     </row>
     <row r="1086" spans="1:3" ht="86.4" customHeight="1">
-      <c r="B1086" s="31" t="s">
+      <c r="B1086" s="32" t="s">
         <v>1219</v>
       </c>
-      <c r="C1086" s="35" t="s">
+      <c r="C1086" s="36" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
-      <c r="B1087" s="31"/>
-      <c r="C1087" s="35"/>
+      <c r="B1087" s="32"/>
+      <c r="C1087" s="36"/>
     </row>
     <row r="1088" spans="1:3">
       <c r="B1088" s="17" t="s">
         <v>1221</v>
       </c>
-      <c r="C1088" s="35" t="s">
+      <c r="C1088" s="36" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="1089" spans="2:3">
       <c r="B1089" s="2"/>
-      <c r="C1089" s="35"/>
+      <c r="C1089" s="36"/>
     </row>
     <row r="1090" spans="2:3">
       <c r="B1090" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="C1090" s="35"/>
+      <c r="C1090" s="36"/>
     </row>
     <row r="1091" spans="2:3" ht="23.4">
       <c r="B1091" s="25" t="s">
@@ -21479,7 +23789,7 @@
       </c>
     </row>
     <row r="1094" spans="2:3">
-      <c r="B1094" s="26" t="s">
+      <c r="B1094" s="27" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -21563,12 +23873,12 @@
         <v>21</v>
       </c>
       <c r="B1117" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="B1118" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -21576,12 +23886,12 @@
     </row>
     <row r="1120" spans="1:2">
       <c r="B1120" s="20" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1121" spans="2:2">
       <c r="B1121" s="19" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1122" spans="2:2">
@@ -21599,37 +23909,37 @@
     </row>
     <row r="1125" spans="2:2">
       <c r="B1125" s="23" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1126" spans="2:2">
       <c r="B1126" s="23" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1127" spans="2:2">
       <c r="B1127" s="23" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1128" spans="2:2">
       <c r="B1128" s="23" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1129" spans="2:2">
       <c r="B1129" s="23" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1130" spans="2:2">
       <c r="B1130" s="23" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1131" spans="2:2">
       <c r="B1131" s="23" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1132" spans="2:2">
@@ -21641,8 +23951,8 @@
       <c r="B1133" s="19"/>
     </row>
     <row r="1134" spans="2:2">
-      <c r="B1134" s="30" t="s">
-        <v>1248</v>
+      <c r="B1134" s="31" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="1135" spans="2:2">
@@ -21650,7 +23960,7 @@
     </row>
     <row r="1136" spans="2:2">
       <c r="B1136" s="20" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1137" spans="2:2">
@@ -21660,19 +23970,19 @@
       <c r="B1138" s="19"/>
     </row>
     <row r="1139" spans="2:2">
-      <c r="B1139" s="33"/>
+      <c r="B1139" s="34"/>
     </row>
     <row r="1140" spans="2:2">
-      <c r="B1140" s="37" t="s">
-        <v>1250</v>
+      <c r="B1140" s="38" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="1141" spans="2:2">
-      <c r="B1141" s="33"/>
+      <c r="B1141" s="34"/>
     </row>
     <row r="1142" spans="2:2">
-      <c r="B1142" s="37" t="s">
-        <v>1251</v>
+      <c r="B1142" s="38" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="1143" spans="2:2">
@@ -21680,12 +23990,12 @@
     </row>
     <row r="1144" spans="2:2">
       <c r="B1144" s="20" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1145" spans="2:2">
       <c r="B1145" s="19" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1146" spans="2:2">
@@ -21703,7 +24013,7 @@
     </row>
     <row r="1149" spans="2:2">
       <c r="B1149" s="23" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1150" spans="2:2">
@@ -21711,7 +24021,7 @@
     </row>
     <row r="1151" spans="2:2">
       <c r="B1151" s="23" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1152" spans="2:2">
@@ -21721,32 +24031,32 @@
     </row>
     <row r="1153" spans="2:2">
       <c r="B1153" s="23" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1154" spans="2:2">
       <c r="B1154" s="23" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1155" spans="2:2">
       <c r="B1155" s="23" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1156" spans="2:2">
       <c r="B1156" s="23" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1157" spans="2:2">
       <c r="B1157" s="23" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1158" spans="2:2">
       <c r="B1158" s="23" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1159" spans="2:2">
@@ -21759,7 +24069,7 @@
     </row>
     <row r="1161" spans="2:2">
       <c r="B1161" s="19" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1162" spans="2:2">
@@ -21769,45 +24079,45 @@
       <c r="B1163" s="19"/>
     </row>
     <row r="1164" spans="2:2">
-      <c r="B1164" s="33"/>
+      <c r="B1164" s="34"/>
     </row>
     <row r="1165" spans="2:2">
-      <c r="B1165" s="37" t="s">
-        <v>1263</v>
+      <c r="B1165" s="38" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="1166" spans="2:2">
-      <c r="B1166" s="33"/>
+      <c r="B1166" s="34"/>
     </row>
     <row r="1167" spans="2:2">
-      <c r="B1167" s="37" t="s">
-        <v>1264</v>
+      <c r="B1167" s="38" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="1168" spans="2:2">
-      <c r="B1168" s="33"/>
+      <c r="B1168" s="34"/>
     </row>
     <row r="1169" spans="1:2">
-      <c r="B1169" s="37" t="s">
-        <v>1265</v>
+      <c r="B1169" s="38" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
-      <c r="B1170" s="33"/>
+      <c r="B1170" s="34"/>
     </row>
     <row r="1171" spans="1:2">
-      <c r="B1171" s="37" t="s">
-        <v>1266</v>
+      <c r="B1171" s="38" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="1175" spans="1:2" ht="18">
       <c r="B1175" s="22" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="B1177" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -21815,12 +24125,12 @@
         <v>22</v>
       </c>
       <c r="B1179" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="B1180" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -21828,7 +24138,7 @@
     </row>
     <row r="1182" spans="1:2">
       <c r="B1182" s="20" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -21836,12 +24146,12 @@
     </row>
     <row r="1184" spans="1:2">
       <c r="B1184" s="20" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1188" spans="2:2" ht="18">
       <c r="B1188" s="22" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1189" spans="2:2">
@@ -21849,7 +24159,7 @@
     </row>
     <row r="1190" spans="2:2">
       <c r="B1190" s="20" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1191" spans="2:2">
@@ -21857,12 +24167,12 @@
     </row>
     <row r="1192" spans="2:2">
       <c r="B1192" s="20" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1194" spans="2:2">
       <c r="B1194" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1195" spans="2:2">
@@ -21870,7 +24180,7 @@
     </row>
     <row r="1196" spans="2:2">
       <c r="B1196" s="19" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1197" spans="2:2">
@@ -21878,12 +24188,12 @@
     </row>
     <row r="1198" spans="2:2">
       <c r="B1198" s="19" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1202" spans="1:2" ht="15.6">
       <c r="B1202" s="18" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -21891,7 +24201,7 @@
     </row>
     <row r="1204" spans="1:2">
       <c r="B1204" s="19" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -21899,7 +24209,7 @@
     </row>
     <row r="1206" spans="1:2">
       <c r="B1206" s="20" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -21907,12 +24217,12 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="B1208" s="20" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="B1210" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -21920,7 +24230,1124 @@
         <v>23</v>
       </c>
       <c r="B1212" t="s">
-        <v>1284</v>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="B1213" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="B1214" s="19"/>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="B1215" s="20" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="B1216" s="19"/>
+    </row>
+    <row r="1217" spans="2:2">
+      <c r="B1217" s="19"/>
+    </row>
+    <row r="1218" spans="2:2">
+      <c r="B1218" s="34"/>
+    </row>
+    <row r="1219" spans="2:2">
+      <c r="B1219" s="34" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:2">
+      <c r="B1220" s="34"/>
+    </row>
+    <row r="1221" spans="2:2">
+      <c r="B1221" s="34" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:2">
+      <c r="B1222" s="19"/>
+    </row>
+    <row r="1223" spans="2:2">
+      <c r="B1223" s="20" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:2">
+      <c r="B1224" s="19"/>
+    </row>
+    <row r="1225" spans="2:2">
+      <c r="B1225" s="19"/>
+    </row>
+    <row r="1226" spans="2:2">
+      <c r="B1226" s="34"/>
+    </row>
+    <row r="1227" spans="2:2">
+      <c r="B1227" s="34" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:2">
+      <c r="B1228" s="34"/>
+    </row>
+    <row r="1229" spans="2:2">
+      <c r="B1229" s="34" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:2">
+      <c r="B1230" s="19"/>
+    </row>
+    <row r="1231" spans="2:2">
+      <c r="B1231" s="20" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:2">
+      <c r="B1232" s="19"/>
+    </row>
+    <row r="1233" spans="2:2">
+      <c r="B1233" s="19"/>
+    </row>
+    <row r="1234" spans="2:2">
+      <c r="B1234" s="34"/>
+    </row>
+    <row r="1235" spans="2:2">
+      <c r="B1235" s="34" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:2" ht="18">
+      <c r="B1239" s="22" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:2">
+      <c r="B1240" s="19"/>
+    </row>
+    <row r="1241" spans="2:2">
+      <c r="B1241" s="20" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:2">
+      <c r="B1242" s="19"/>
+    </row>
+    <row r="1243" spans="2:2">
+      <c r="B1243" s="20" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:2">
+      <c r="B1244" s="19"/>
+    </row>
+    <row r="1245" spans="2:2">
+      <c r="B1245" s="20" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:2">
+      <c r="B1247" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249">
+        <v>24</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="B1250" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="B1251" s="19"/>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="B1252" s="20" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="B1253" s="19"/>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="B1254" s="20" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="B1255" s="19"/>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="B1256" s="19" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" ht="18">
+      <c r="B1258" s="22" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="B1259" s="19"/>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="B1260" s="20" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="B1261" s="19" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="B1262" s="19"/>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="B1263" s="20" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="B1264" s="19" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:2">
+      <c r="B1265" s="19"/>
+    </row>
+    <row r="1266" spans="2:2">
+      <c r="B1266" s="20" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2">
+      <c r="B1267" s="19" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:2" ht="15.6">
+      <c r="B1271" s="18" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:2">
+      <c r="B1272" s="19"/>
+    </row>
+    <row r="1273" spans="2:2">
+      <c r="B1273" s="20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2">
+      <c r="B1274" s="19" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:2">
+      <c r="B1275" s="19"/>
+    </row>
+    <row r="1276" spans="2:2">
+      <c r="B1276" s="20" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:2">
+      <c r="B1277" s="19" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:2">
+      <c r="B1278" s="19"/>
+    </row>
+    <row r="1279" spans="2:2">
+      <c r="B1279" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:2">
+      <c r="B1280" s="19" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:2">
+      <c r="B1282" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:2">
+      <c r="B1309" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:2" ht="18">
+      <c r="B1313" s="22" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:2">
+      <c r="B1314" s="19"/>
+    </row>
+    <row r="1315" spans="2:2">
+      <c r="B1315" s="20" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:2">
+      <c r="B1316" s="19" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:2">
+      <c r="B1317" s="19"/>
+    </row>
+    <row r="1318" spans="2:2">
+      <c r="B1318" s="20" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:2">
+      <c r="B1319" s="19"/>
+    </row>
+    <row r="1320" spans="2:2">
+      <c r="B1320" s="19"/>
+    </row>
+    <row r="1321" spans="2:2">
+      <c r="B1321" s="34"/>
+    </row>
+    <row r="1322" spans="2:2">
+      <c r="B1322" s="34" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:2">
+      <c r="B1323" s="34"/>
+    </row>
+    <row r="1324" spans="2:2">
+      <c r="B1324" s="34" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:2">
+      <c r="B1325" s="34"/>
+    </row>
+    <row r="1326" spans="2:2">
+      <c r="B1326" s="34" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:2">
+      <c r="B1328" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:3" ht="18">
+      <c r="B1330" s="22" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:3">
+      <c r="B1331" s="19"/>
+    </row>
+    <row r="1332" spans="2:3">
+      <c r="B1332" s="20" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:3">
+      <c r="B1333" s="19" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:3">
+      <c r="B1334" s="19"/>
+    </row>
+    <row r="1335" spans="2:3">
+      <c r="B1335" s="20" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:3">
+      <c r="B1336" s="19" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:3">
+      <c r="B1337" s="19" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:3">
+      <c r="B1338" s="19" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:3" ht="23.4">
+      <c r="B1342" s="25" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:3">
+      <c r="B1344" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1344" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:3" ht="86.4">
+      <c r="B1345" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1345" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:3" ht="57.6">
+      <c r="B1346" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1346" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:3" ht="72">
+      <c r="B1347" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C1347" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:3" ht="72">
+      <c r="B1348" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1348" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:3" ht="23.4">
+      <c r="B1351" s="25" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:3">
+      <c r="B1352" s="19"/>
+    </row>
+    <row r="1353" spans="2:3">
+      <c r="B1353" s="20" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:3">
+      <c r="B1354" s="19"/>
+    </row>
+    <row r="1355" spans="2:3">
+      <c r="B1355" s="20" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:3">
+      <c r="B1356" s="19"/>
+    </row>
+    <row r="1357" spans="2:3">
+      <c r="B1357" s="20" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:3">
+      <c r="B1358" s="19"/>
+    </row>
+    <row r="1359" spans="2:3">
+      <c r="B1359" s="20" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:3">
+      <c r="B1360" s="19"/>
+    </row>
+    <row r="1361" spans="2:2">
+      <c r="B1361" s="20" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:2">
+      <c r="B1362" s="19"/>
+    </row>
+    <row r="1363" spans="2:2">
+      <c r="B1363" s="20" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:2">
+      <c r="B1365" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:2">
+      <c r="B1367" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:2">
+      <c r="B1371" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1372" spans="2:2">
+      <c r="B1372" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:2">
+      <c r="B1373" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:2">
+      <c r="B1374" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:2">
+      <c r="B1375" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:2">
+      <c r="B1376" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1377" spans="2:2">
+      <c r="B1377" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:2">
+      <c r="B1378" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:2">
+      <c r="B1379" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:2">
+      <c r="B1380" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:2">
+      <c r="B1381" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:2">
+      <c r="B1382" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:2">
+      <c r="B1383" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:2">
+      <c r="B1384" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:2">
+      <c r="B1385" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:2">
+      <c r="B1386" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:2">
+      <c r="B1387" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:2" ht="15.6">
+      <c r="B1391" s="18" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:3">
+      <c r="B1393" s="26" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:3">
+      <c r="B1395" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1396" spans="2:3">
+      <c r="B1396" s="19"/>
+    </row>
+    <row r="1397" spans="2:3">
+      <c r="B1397" s="20" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1398" spans="2:3">
+      <c r="B1398" s="19"/>
+    </row>
+    <row r="1399" spans="2:3">
+      <c r="B1399" s="20" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1400" spans="2:3">
+      <c r="B1400" s="19"/>
+    </row>
+    <row r="1401" spans="2:3">
+      <c r="B1401" s="19" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1405" spans="2:3" ht="15.6">
+      <c r="B1405" s="18" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1407" spans="2:3">
+      <c r="B1407" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C1407" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1408" spans="2:3" ht="43.2">
+      <c r="B1408" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1408" s="2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1409" spans="2:3" ht="57.6">
+      <c r="B1409" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1409" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1410" spans="2:3" ht="57.6">
+      <c r="B1410" s="17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1410" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1412" spans="2:3">
+      <c r="B1412" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1413" spans="2:3">
+      <c r="B1413" s="19"/>
+    </row>
+    <row r="1414" spans="2:3">
+      <c r="B1414" s="20" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1415" spans="2:3">
+      <c r="B1415" s="19"/>
+    </row>
+    <row r="1416" spans="2:3">
+      <c r="B1416" s="20" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1417" spans="2:3">
+      <c r="B1417" s="19"/>
+    </row>
+    <row r="1418" spans="2:3">
+      <c r="B1418" s="20" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1422" spans="2:3" ht="15.6">
+      <c r="B1422" s="18" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1424" spans="2:3">
+      <c r="B1424" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1425" spans="2:3">
+      <c r="B1425" s="19"/>
+    </row>
+    <row r="1426" spans="2:3">
+      <c r="B1426" s="20" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:3">
+      <c r="B1427" s="19"/>
+    </row>
+    <row r="1428" spans="2:3">
+      <c r="B1428" s="20" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:3">
+      <c r="B1430" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:3">
+      <c r="B1432" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C1432" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:3" ht="72">
+      <c r="B1433" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1433" s="2" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:3" ht="43.2">
+      <c r="B1434" s="17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1434" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:3" ht="57.6">
+      <c r="B1435" s="17" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1435" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:3" ht="15.6">
+      <c r="B1438" s="18" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:3">
+      <c r="B1439" s="19"/>
+    </row>
+    <row r="1440" spans="2:3">
+      <c r="B1440" s="20" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:2">
+      <c r="B1441" s="19"/>
+    </row>
+    <row r="1442" spans="2:2">
+      <c r="B1442" s="20" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:2">
+      <c r="B1443" s="19"/>
+    </row>
+    <row r="1444" spans="2:2">
+      <c r="B1444" s="20" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:2">
+      <c r="B1445" s="19"/>
+    </row>
+    <row r="1446" spans="2:2">
+      <c r="B1446" s="20" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:2">
+      <c r="B1448" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:2">
+      <c r="B1449" s="19"/>
+    </row>
+    <row r="1450" spans="2:2">
+      <c r="B1450" s="19" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:2">
+      <c r="B1451" s="19"/>
+    </row>
+    <row r="1452" spans="2:2">
+      <c r="B1452" s="19" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:2">
+      <c r="B1453" s="19"/>
+    </row>
+    <row r="1454" spans="2:2">
+      <c r="B1454" s="19" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:2">
+      <c r="B1458" s="16" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:2">
+      <c r="B1460" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:2">
+      <c r="B1463" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:2" ht="18">
+      <c r="B1465" s="22" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:2">
+      <c r="B1466" s="9"/>
+    </row>
+    <row r="1467" spans="2:2">
+      <c r="B1467" s="23" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:2">
+      <c r="B1468" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:2">
+      <c r="B1469" s="23" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:2">
+      <c r="B1470" s="23" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:2">
+      <c r="B1471" s="23" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:2">
+      <c r="B1472" s="23" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:4">
+      <c r="B1473" s="23" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:4">
+      <c r="B1474" s="23" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:4">
+      <c r="B1475" s="21"/>
+    </row>
+    <row r="1476" spans="2:4" ht="28.8">
+      <c r="B1476" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1476" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:4" ht="129.6">
+      <c r="B1477" s="17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1477" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D1477" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:4" ht="86.4">
+      <c r="B1478" s="17" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1478" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D1478" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:4" ht="18">
+      <c r="B1481" s="22" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:4">
+      <c r="B1482" s="19"/>
+    </row>
+    <row r="1483" spans="2:4">
+      <c r="B1483" s="20" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:4">
+      <c r="B1484" s="19"/>
+    </row>
+    <row r="1485" spans="2:4">
+      <c r="B1485" s="19"/>
+    </row>
+    <row r="1486" spans="2:4">
+      <c r="B1486" s="34"/>
+    </row>
+    <row r="1487" spans="2:4">
+      <c r="B1487" s="34" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:4">
+      <c r="B1488" s="34"/>
+    </row>
+    <row r="1489" spans="2:2">
+      <c r="B1489" s="34" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:2">
+      <c r="B1490" s="34"/>
+    </row>
+    <row r="1491" spans="2:2">
+      <c r="B1491" s="34" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:2">
+      <c r="B1492" s="19"/>
+    </row>
+    <row r="1493" spans="2:2">
+      <c r="B1493" s="20" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:2">
+      <c r="B1494" s="19"/>
+    </row>
+    <row r="1495" spans="2:2">
+      <c r="B1495" s="20" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:2">
+      <c r="B1496" s="19"/>
+    </row>
+    <row r="1497" spans="2:2">
+      <c r="B1497" s="19"/>
+    </row>
+    <row r="1498" spans="2:2">
+      <c r="B1498" s="34"/>
+    </row>
+    <row r="1499" spans="2:2">
+      <c r="B1499" s="35" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:2">
+      <c r="B1500" s="34"/>
+    </row>
+    <row r="1501" spans="2:2">
+      <c r="B1501" s="35" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:2">
+      <c r="B1502" s="34"/>
+    </row>
+    <row r="1503" spans="2:2">
+      <c r="B1503" s="35" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:4" ht="18">
+      <c r="B1507" s="22" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:4">
+      <c r="B1509" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1509" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D1509" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:4" ht="28.8">
+      <c r="B1510" s="17" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C1510" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D1510" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:4" ht="28.8">
+      <c r="B1511" s="17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C1511" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1511" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:4" ht="57.6">
+      <c r="B1512" s="17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1512" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1512" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:4" ht="28.8">
+      <c r="B1513" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C1513" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1513" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:4" ht="18">
+      <c r="B1516" s="22" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:4">
+      <c r="B1518" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1518" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:4" ht="28.8">
+      <c r="B1519" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C1519" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:4" ht="72">
+      <c r="B1520" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C1520" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:3" ht="43.2">
+      <c r="B1521" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C1521" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:3" ht="28.8">
+      <c r="B1522" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1522" s="2" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:3">
+      <c r="B1524" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:3">
+      <c r="B1525" s="19"/>
+    </row>
+    <row r="1526" spans="2:3">
+      <c r="B1526" s="19" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:3">
+      <c r="B1527" s="19"/>
+    </row>
+    <row r="1528" spans="2:3">
+      <c r="B1528" s="19" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:3">
+      <c r="B1529" s="19"/>
+    </row>
+    <row r="1530" spans="2:3">
+      <c r="B1530" s="19" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:3">
+      <c r="B1532" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:3">
+      <c r="B1534" t="s">
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
